--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68745A-01C2-49CE-AAD4-3815F7DED5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95DA1AE-36E3-4A0E-89E8-2AC632F36CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>Week 1</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>Submit final report!</t>
+  </si>
+  <si>
+    <t>Allow user to select elements</t>
+  </si>
+  <si>
+    <t>Create a logo</t>
+  </si>
+  <si>
+    <t>Create UI</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Display the molecular formula</t>
   </si>
 </sst>
 </file>
@@ -456,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -621,6 +636,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +653,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFFF3399"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF6699"/>
@@ -948,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91ADE50-0E0F-41B8-9D4D-224F0CCF1AAD}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,10 +1219,12 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
@@ -1217,10 +1243,12 @@
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
@@ -1237,10 +1265,12 @@
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
@@ -1257,10 +1287,12 @@
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
@@ -1277,10 +1309,12 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
@@ -1866,10 +1900,12 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95DA1AE-36E3-4A0E-89E8-2AC632F36CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4A54C4-2793-4493-BC46-58090077386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>Week 1</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>Display the molecular formula</t>
+  </si>
+  <si>
+    <t>Make the EA</t>
+  </si>
+  <si>
+    <t>Update risk assessment for COVID</t>
+  </si>
+  <si>
+    <t>Improve exception handling</t>
+  </si>
+  <si>
+    <t>Choose EA parameters</t>
+  </si>
+  <si>
+    <t>Create models of the molecule</t>
+  </si>
+  <si>
+    <t>See if the EA works to decrease energy</t>
+  </si>
+  <si>
+    <t>See if the molecule's shape is displayed in the cell properly</t>
   </si>
 </sst>
 </file>
@@ -973,7 +994,7 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,10 +1158,12 @@
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="33"/>
@@ -1183,10 +1206,12 @@
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="33"/>
@@ -1203,10 +1228,12 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="K8" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="33"/>
@@ -1225,10 +1252,12 @@
       </c>
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="33"/>
@@ -1249,10 +1278,12 @@
       </c>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="33"/>
@@ -1271,10 +1302,12 @@
       </c>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="33"/>
@@ -1293,10 +1326,12 @@
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="33"/>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4A54C4-2793-4493-BC46-58090077386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E3732F-873C-45F3-9329-B63B73832FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>Week 1</t>
   </si>
@@ -198,15 +198,9 @@
     <t>Stand up meeting 4</t>
   </si>
   <si>
-    <t>User story: I wish to view a molecule</t>
-  </si>
-  <si>
     <t>User story: I wish to view</t>
   </si>
   <si>
-    <t>analytical info &amp; PES</t>
-  </si>
-  <si>
     <t>User story: I wish to interact with the algorithm</t>
   </si>
   <si>
@@ -268,6 +262,33 @@
   </si>
   <si>
     <t>See if the molecule's shape is displayed in the cell properly</t>
+  </si>
+  <si>
+    <t>User story: I wish to use a different EA.</t>
+  </si>
+  <si>
+    <t>Try an EA which alters one atom at a time.</t>
+  </si>
+  <si>
+    <t>Try an EA which makes many molecules and compares them.</t>
+  </si>
+  <si>
+    <t>Try to get a better structure prediction than before.</t>
+  </si>
+  <si>
+    <t>Make the EA.</t>
+  </si>
+  <si>
+    <t>Test num iterations, E calcs, array changes.</t>
+  </si>
+  <si>
+    <t>Try without crossover and remove all parents.</t>
+  </si>
+  <si>
+    <t>molecule, info &amp; PES</t>
+  </si>
+  <si>
+    <t>Move from test area to application.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -665,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,7 +1018,7 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,7 +1161,7 @@
       <c r="M4" s="61"/>
       <c r="N4" s="62"/>
       <c r="O4" s="60" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="63"/>
@@ -1160,14 +1184,16 @@
       <c r="J5" s="49"/>
       <c r="K5" s="52"/>
       <c r="L5" s="52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="O5" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
@@ -1182,10 +1208,12 @@
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="33"/>
@@ -1208,14 +1236,16 @@
       <c r="J7" s="49"/>
       <c r="K7" s="58"/>
       <c r="L7" s="58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
+      <c r="O7" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -1229,15 +1259,17 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+      <c r="O8" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
@@ -1248,20 +1280,22 @@
       <c r="F9" s="49"/>
       <c r="G9" s="79"/>
       <c r="H9" s="79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
       <c r="K9" s="79"/>
       <c r="L9" s="79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M9" s="79"/>
       <c r="N9" s="79"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -1274,20 +1308,22 @@
       <c r="F10" s="49"/>
       <c r="G10" s="79"/>
       <c r="H10" s="79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
       <c r="K10" s="79"/>
       <c r="L10" s="79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M10" s="79"/>
       <c r="N10" s="79"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
+      <c r="O10" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -1298,20 +1334,22 @@
       <c r="F11" s="49"/>
       <c r="G11" s="79"/>
       <c r="H11" s="79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
+      <c r="O11" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
@@ -1322,13 +1360,13 @@
       <c r="F12" s="49"/>
       <c r="G12" s="79"/>
       <c r="H12" s="79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
       <c r="K12" s="79"/>
       <c r="L12" s="79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M12" s="79"/>
       <c r="N12" s="79"/>
@@ -1346,7 +1384,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="80"/>
       <c r="H13" s="80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
@@ -1522,12 +1560,12 @@
       <c r="B20" s="16"/>
       <c r="C20" s="51"/>
       <c r="D20" s="61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62"/>
       <c r="G20" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="72" t="s">
@@ -1535,11 +1573,11 @@
       </c>
       <c r="J20" s="73"/>
       <c r="K20" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N20" s="52"/>
       <c r="O20" s="51"/>
@@ -1552,12 +1590,12 @@
       <c r="B21" s="16"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="62"/>
       <c r="G21" s="52" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="72" t="s">
@@ -1565,7 +1603,7 @@
       </c>
       <c r="J21" s="73"/>
       <c r="K21" s="52" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="49"/>
@@ -1576,7 +1614,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="62"/>
@@ -1854,7 +1892,7 @@
       <c r="F35" s="32"/>
       <c r="K35" s="32"/>
       <c r="M35" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N35" s="66"/>
       <c r="O35" s="32"/>
@@ -1865,19 +1903,19 @@
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
       <c r="D36" s="61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
       <c r="G36" s="13"/>
       <c r="H36" s="61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="62"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="57"/>
@@ -1895,7 +1933,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="60"/>
       <c r="H37" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I37" s="52"/>
       <c r="J37" s="62"/>
@@ -1915,7 +1953,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="60"/>
       <c r="H38" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="62"/>
@@ -2195,7 +2233,7 @@
       <c r="M51" s="48"/>
       <c r="N51" s="48"/>
       <c r="O51" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P51" s="67"/>
       <c r="Q51" s="64"/>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E3732F-873C-45F3-9329-B63B73832FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037869EF-EE6F-433A-94F4-1E8BF1BC6B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037869EF-EE6F-433A-94F4-1E8BF1BC6B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D98D4-7636-4CD7-88C2-AA242277B647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>Week 1</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Stand up meeting 4</t>
   </si>
   <si>
-    <t>User story: I wish to view</t>
-  </si>
-  <si>
     <t>User story: I wish to interact with the algorithm</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Fixes</t>
-  </si>
-  <si>
     <t>Feedback &amp; changes</t>
   </si>
   <si>
@@ -285,10 +279,13 @@
     <t>Try without crossover and remove all parents.</t>
   </si>
   <si>
-    <t>molecule, info &amp; PES</t>
-  </si>
-  <si>
     <t>Move from test area to application.</t>
+  </si>
+  <si>
+    <t>User story: I wish to view molecule, info &amp; PES</t>
+  </si>
+  <si>
+    <t>Fixes &amp; improvements</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -648,9 +645,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -689,6 +683,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,8 +702,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF3399"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF6699"/>
@@ -1017,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91ADE50-0E0F-41B8-9D4D-224F0CCF1AAD}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,7 +1165,7 @@
       <c r="M4" s="61"/>
       <c r="N4" s="62"/>
       <c r="O4" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="63"/>
@@ -1184,12 +1188,12 @@
       <c r="J5" s="49"/>
       <c r="K5" s="52"/>
       <c r="L5" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P5" s="52"/>
       <c r="Q5" s="55"/>
@@ -1209,7 +1213,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -1236,16 +1240,16 @@
       <c r="J7" s="49"/>
       <c r="K7" s="58"/>
       <c r="L7" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7" s="58"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -1259,17 +1263,17 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P8" s="58"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
@@ -1278,24 +1282,24 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -1306,24 +1310,24 @@
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -1332,24 +1336,24 @@
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
@@ -1358,18 +1362,18 @@
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="33"/>
@@ -1382,12 +1386,12 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
@@ -1474,10 +1478,10 @@
       <c r="H17" s="40">
         <v>44183</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="71"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="37" t="s">
         <v>11</v>
       </c>
@@ -1517,10 +1521,10 @@
       <c r="H18" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="73"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="46" t="s">
         <v>40</v>
       </c>
@@ -1546,10 +1550,10 @@
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="73"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
@@ -1558,26 +1562,26 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="61" t="s">
-        <v>58</v>
-      </c>
+      <c r="C20" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="62"/>
-      <c r="G20" s="52" t="s">
-        <v>55</v>
+      <c r="G20" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="H20" s="52"/>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="52" t="s">
-        <v>55</v>
+      <c r="J20" s="72"/>
+      <c r="K20" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="52"/>
       <c r="O20" s="51"/>
@@ -1589,21 +1593,19 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="52" t="s">
-        <v>60</v>
-      </c>
+      <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="62"/>
       <c r="G21" s="52" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H21" s="52"/>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="73"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="52" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="49"/>
@@ -1613,19 +1615,21 @@
       <c r="A22" s="5"/>
       <c r="B22" s="16"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="52" t="s">
-        <v>59</v>
-      </c>
+      <c r="D22" s="51"/>
       <c r="E22" s="52"/>
       <c r="F22" s="62"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="72" t="s">
+      <c r="G22" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="52"/>
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
     </row>
@@ -1634,20 +1638,22 @@
         <v>15</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="72" t="s">
+      <c r="H23" s="58"/>
+      <c r="I23" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="58"/>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
     </row>
@@ -1660,10 +1666,10 @@
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
-      <c r="I24" s="72" t="s">
+      <c r="I24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="73"/>
+      <c r="J24" s="72"/>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
@@ -1678,10 +1684,10 @@
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="73"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
@@ -1698,10 +1704,10 @@
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
-      <c r="I26" s="72" t="s">
+      <c r="I26" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="72"/>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
@@ -1716,10 +1722,10 @@
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
-      <c r="I27" s="72" t="s">
+      <c r="I27" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="73"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
       <c r="M27" s="49"/>
@@ -1734,10 +1740,10 @@
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="72" t="s">
+      <c r="I28" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="73"/>
+      <c r="J28" s="72"/>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
       <c r="M28" s="49"/>
@@ -1752,10 +1758,10 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="75"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
@@ -1892,7 +1898,7 @@
       <c r="F35" s="32"/>
       <c r="K35" s="32"/>
       <c r="M35" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N35" s="66"/>
       <c r="O35" s="32"/>
@@ -1903,19 +1909,19 @@
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
       <c r="D36" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
       <c r="G36" s="13"/>
       <c r="H36" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="62"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="57"/>
@@ -1933,7 +1939,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="60"/>
       <c r="H37" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I37" s="52"/>
       <c r="J37" s="62"/>
@@ -1953,7 +1959,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="60"/>
       <c r="H38" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="62"/>
@@ -1973,12 +1979,12 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78" t="s">
+      <c r="G39" s="77"/>
+      <c r="H39" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
@@ -2163,10 +2169,10 @@
       <c r="F49" s="45">
         <v>44281</v>
       </c>
-      <c r="G49" s="70" t="s">
+      <c r="G49" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="71"/>
+      <c r="H49" s="70"/>
       <c r="I49" s="42" t="s">
         <v>27</v>
       </c>
@@ -2201,10 +2207,10 @@
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
-      <c r="G50" s="72" t="s">
+      <c r="G50" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="76"/>
+      <c r="H50" s="75"/>
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
@@ -2222,10 +2228,10 @@
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="76"/>
+      <c r="H51" s="75"/>
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
       <c r="K51" s="48"/>
@@ -2233,7 +2239,7 @@
       <c r="M51" s="48"/>
       <c r="N51" s="48"/>
       <c r="O51" s="65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P51" s="67"/>
       <c r="Q51" s="64"/>
@@ -2245,10 +2251,10 @@
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="76"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
       <c r="K52" s="49"/>
@@ -2268,10 +2274,10 @@
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="76"/>
+      <c r="H53" s="75"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
       <c r="K53" s="49"/>
@@ -2289,10 +2295,10 @@
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
-      <c r="G54" s="72" t="s">
+      <c r="G54" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="76"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
@@ -2312,10 +2318,10 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="72" t="s">
+      <c r="G55" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="76"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -2333,10 +2339,10 @@
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="72" t="s">
+      <c r="G56" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="76"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -2354,10 +2360,10 @@
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="72" t="s">
+      <c r="G57" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="76"/>
+      <c r="H57" s="75"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
       <c r="K57" s="49"/>
@@ -2377,10 +2383,10 @@
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
-      <c r="G58" s="72" t="s">
+      <c r="G58" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="76"/>
+      <c r="H58" s="75"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
       <c r="K58" s="49"/>
@@ -2398,10 +2404,10 @@
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
-      <c r="G59" s="72" t="s">
+      <c r="G59" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="76"/>
+      <c r="H59" s="75"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
       <c r="K59" s="49"/>
@@ -2419,10 +2425,10 @@
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="76"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
       <c r="K60" s="49"/>
@@ -2440,10 +2446,10 @@
       <c r="D61" s="48"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
-      <c r="G61" s="74" t="s">
+      <c r="G61" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="77"/>
+      <c r="H61" s="76"/>
       <c r="I61" s="48"/>
       <c r="J61" s="48"/>
       <c r="K61" s="48"/>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D98D4-7636-4CD7-88C2-AA242277B647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E82ED7-A6A4-4C0A-A2ED-09ED6231D718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E82ED7-A6A4-4C0A-A2ED-09ED6231D718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00377250-8EDC-469C-9A6A-D9BCBECE5AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00377250-8EDC-469C-9A6A-D9BCBECE5AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17614006-F1B6-41ED-BD03-2759A9C7CA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Week 1</t>
   </si>
@@ -201,18 +201,12 @@
     <t>User story: I wish to interact with the algorithm</t>
   </si>
   <si>
-    <t>User story: I wish to find isomers</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>Feedback &amp; changes</t>
   </si>
   <si>
-    <t>Fixes &amp; clean up</t>
-  </si>
-  <si>
     <t>Showcase materials</t>
   </si>
   <si>
@@ -286,13 +280,22 @@
   </si>
   <si>
     <t>Fixes &amp; improvements</t>
+  </si>
+  <si>
+    <t>Final fixes &amp; clean up</t>
+  </si>
+  <si>
+    <t>Finish code</t>
+  </si>
+  <si>
+    <t>Start writing report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +363,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -510,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -694,6 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91ADE50-0E0F-41B8-9D4D-224F0CCF1AAD}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1165,7 +1176,7 @@
       <c r="M4" s="61"/>
       <c r="N4" s="62"/>
       <c r="O4" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="63"/>
@@ -1188,12 +1199,12 @@
       <c r="J5" s="49"/>
       <c r="K5" s="52"/>
       <c r="L5" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P5" s="52"/>
       <c r="Q5" s="55"/>
@@ -1213,7 +1224,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -1240,12 +1251,12 @@
       <c r="J7" s="49"/>
       <c r="K7" s="58"/>
       <c r="L7" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P7" s="58"/>
       <c r="Q7" s="77"/>
@@ -1263,13 +1274,13 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P8" s="58"/>
       <c r="Q8" s="77"/>
@@ -1284,19 +1295,19 @@
       <c r="F9" s="49"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
       <c r="L9" s="78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
       <c r="O9" s="78"/>
       <c r="P9" s="78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="80"/>
       <c r="R9" s="80"/>
@@ -1312,18 +1323,18 @@
       <c r="F10" s="49"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
       <c r="L10" s="78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78"/>
       <c r="O10" s="78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P10" s="78"/>
       <c r="Q10" s="80"/>
@@ -1338,18 +1349,18 @@
       <c r="F11" s="49"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="78"/>
       <c r="O11" s="78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P11" s="78"/>
       <c r="Q11" s="80"/>
@@ -1364,13 +1375,13 @@
       <c r="F12" s="49"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="78"/>
       <c r="L12" s="78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="78"/>
       <c r="N12" s="78"/>
@@ -1388,7 +1399,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="79"/>
       <c r="H13" s="79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
@@ -1563,13 +1574,13 @@
       <c r="A20" s="5"/>
       <c r="B20" s="16"/>
       <c r="C20" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="62"/>
       <c r="G20" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="71" t="s">
@@ -1577,7 +1588,7 @@
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="52" t="s">
@@ -1597,7 +1608,7 @@
       <c r="E21" s="52"/>
       <c r="F21" s="62"/>
       <c r="G21" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="71" t="s">
@@ -1605,7 +1616,7 @@
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="49"/>
@@ -1619,7 +1630,7 @@
       <c r="E22" s="52"/>
       <c r="F22" s="62"/>
       <c r="G22" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="71" t="s">
@@ -1627,7 +1638,7 @@
       </c>
       <c r="J22" s="72"/>
       <c r="K22" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L22" s="52"/>
       <c r="M22" s="49"/>
@@ -1896,9 +1907,13 @@
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
+      <c r="I35" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="85"/>
       <c r="K35" s="32"/>
       <c r="M35" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N35" s="66"/>
       <c r="O35" s="32"/>
@@ -1911,17 +1926,17 @@
       <c r="D36" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="61"/>
-      <c r="J36" s="62"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="57"/>
@@ -1933,16 +1948,18 @@
         <v>14</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="62"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
@@ -1953,16 +1970,10 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="62"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="62"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
@@ -1975,16 +1986,12 @@
         <v>15</v>
       </c>
       <c r="B39" s="17"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
@@ -2239,7 +2246,7 @@
       <c r="M51" s="48"/>
       <c r="N51" s="48"/>
       <c r="O51" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P51" s="67"/>
       <c r="Q51" s="64"/>

--- a/Documentation/Roadmap.xlsx
+++ b/Documentation/Roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\university\Compsci\yr3\Dissertation project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17614006-F1B6-41ED-BD03-2759A9C7CA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75711E36-439A-4D03-A35D-E5A7D91AF147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53864A50-9EE7-4BD2-AA97-B8AECD3C4F84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Week 1</t>
   </si>
@@ -168,15 +168,6 @@
     <t>nine</t>
   </si>
   <si>
-    <t>Stand up meeting 1</t>
-  </si>
-  <si>
-    <t>Stand up meeting 2</t>
-  </si>
-  <si>
-    <t>Stand up meeting 3</t>
-  </si>
-  <si>
     <t>Planning</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>User story: I wish to predict a shape</t>
   </si>
   <si>
-    <t>Stand up meeting 4</t>
-  </si>
-  <si>
     <t>User story: I wish to interact with the algorithm</t>
   </si>
   <si>
@@ -289,13 +277,58 @@
   </si>
   <si>
     <t>Start writing report</t>
+  </si>
+  <si>
+    <t>Potential energy surface plot</t>
+  </si>
+  <si>
+    <t>Display best molecules</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Display information (angles, distances)</t>
+  </si>
+  <si>
+    <t>Use of colours</t>
+  </si>
+  <si>
+    <t>Act on user feedback</t>
+  </si>
+  <si>
+    <t>Fix errors &amp; bugs</t>
+  </si>
+  <si>
+    <t>Implement plot limits in perAtom</t>
+  </si>
+  <si>
+    <t>Include buttons etc for interactions</t>
+  </si>
+  <si>
+    <t>Make user interface for choosing settings</t>
+  </si>
+  <si>
+    <t>Let user choose the algorithm</t>
+  </si>
+  <si>
+    <t>Let user set cell boundaries</t>
+  </si>
+  <si>
+    <t>Find and fix bugs</t>
+  </si>
+  <si>
+    <t>Tidy up</t>
+  </si>
+  <si>
+    <t>Make changes from user feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +408,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -420,38 +481,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -529,17 +564,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -549,10 +584,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,48 +633,39 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,38 +674,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -694,17 +720,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +761,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFFF3399"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF6699"/>
@@ -1032,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91ADE50-0E0F-41B8-9D4D-224F0CCF1AAD}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1131,104 +1179,96 @@
       <c r="B3" s="28"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
-      <c r="E3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="50"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="57"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="K6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="33"/>
@@ -1239,28 +1279,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -1273,18 +1313,18 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
+      <c r="K8" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
@@ -1293,24 +1333,24 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -1321,24 +1361,24 @@
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -1347,24 +1387,24 @@
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
@@ -1373,18 +1413,18 @@
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="33"/>
@@ -1397,12 +1437,12 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
@@ -1489,10 +1529,10 @@
       <c r="H17" s="40">
         <v>44183</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="70"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="37" t="s">
         <v>11</v>
       </c>
@@ -1532,10 +1572,10 @@
       <c r="H18" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="72"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="46" t="s">
         <v>40</v>
       </c>
@@ -1561,10 +1601,10 @@
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="72"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
@@ -1573,74 +1613,74 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="71" t="s">
+      <c r="C20" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="62"/>
-      <c r="M20" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="59"/>
+      <c r="M20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="51"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="71" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="62"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="59"/>
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="71" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="51"/>
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
     </row>
@@ -1649,22 +1689,22 @@
         <v>15</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="68" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="55"/>
+      <c r="I23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="68" t="s">
+      <c r="J23" s="69"/>
+      <c r="K23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="58"/>
+      <c r="L23" s="55"/>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
     </row>
@@ -1677,10 +1717,10 @@
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="72"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
@@ -1689,94 +1729,128 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="C25" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="75"/>
+      <c r="M25" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="75"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="75"/>
+      <c r="M26" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="75"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="C27" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
-      <c r="I27" s="71" t="s">
+      <c r="I27" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="72"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
+      <c r="M27" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="75"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="72"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
+      <c r="M28" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="75"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="C29" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="74"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+      <c r="M29" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="N29" s="85"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
@@ -1907,15 +1981,15 @@
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
-      <c r="I35" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="85"/>
+      <c r="I35" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="82"/>
       <c r="K35" s="32"/>
-      <c r="M35" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="66"/>
+      <c r="M35" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="63"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
     </row>
@@ -1923,23 +1997,23 @@
       <c r="A36" s="5"/>
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="57"/>
+      <c r="D36" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="86"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
     </row>
@@ -1948,32 +2022,34 @@
         <v>14</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" s="86"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="62"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="59"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
@@ -1986,12 +2062,12 @@
         <v>15</v>
       </c>
       <c r="B39" s="17"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
@@ -2020,14 +2096,18 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
@@ -2040,14 +2120,18 @@
         <v>16</v>
       </c>
       <c r="B42" s="18"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
@@ -2058,14 +2142,18 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
@@ -2176,10 +2264,10 @@
       <c r="F49" s="45">
         <v>44281</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="70"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="42" t="s">
         <v>27</v>
       </c>
@@ -2214,10 +2302,10 @@
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="75"/>
+      <c r="H50" s="72"/>
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
@@ -2226,7 +2314,7 @@
       <c r="N50" s="48"/>
       <c r="O50" s="48"/>
       <c r="P50" s="48"/>
-      <c r="Q50" s="64"/>
+      <c r="Q50" s="61"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
@@ -2235,21 +2323,21 @@
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="75"/>
+      <c r="H51" s="72"/>
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
       <c r="K51" s="48"/>
       <c r="L51" s="48"/>
       <c r="M51" s="48"/>
       <c r="N51" s="48"/>
-      <c r="O51" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="64"/>
+      <c r="O51" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="61"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
@@ -2258,10 +2346,10 @@
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
-      <c r="G52" s="71" t="s">
+      <c r="G52" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="75"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
       <c r="K52" s="49"/>
@@ -2270,7 +2358,7 @@
       <c r="N52" s="49"/>
       <c r="O52" s="49"/>
       <c r="P52" s="49"/>
-      <c r="Q52" s="64"/>
+      <c r="Q52" s="61"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
@@ -2281,10 +2369,10 @@
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
-      <c r="G53" s="71" t="s">
+      <c r="G53" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="75"/>
+      <c r="H53" s="72"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
       <c r="K53" s="49"/>
@@ -2293,7 +2381,7 @@
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
-      <c r="Q53" s="64"/>
+      <c r="Q53" s="61"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
@@ -2302,10 +2390,10 @@
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="75"/>
+      <c r="H54" s="72"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
@@ -2314,7 +2402,7 @@
       <c r="N54" s="49"/>
       <c r="O54" s="49"/>
       <c r="P54" s="49"/>
-      <c r="Q54" s="64"/>
+      <c r="Q54" s="61"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
@@ -2325,10 +2413,10 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="71" t="s">
+      <c r="G55" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="75"/>
+      <c r="H55" s="72"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -2337,7 +2425,7 @@
       <c r="N55" s="49"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
-      <c r="Q55" s="64"/>
+      <c r="Q55" s="61"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
@@ -2346,10 +2434,10 @@
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="75"/>
+      <c r="H56" s="72"/>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -2358,7 +2446,7 @@
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
-      <c r="Q56" s="64"/>
+      <c r="Q56" s="61"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
@@ -2367,10 +2455,10 @@
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="71" t="s">
+      <c r="G57" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="75"/>
+      <c r="H57" s="72"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
       <c r="K57" s="49"/>
@@ -2379,7 +2467,7 @@
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
       <c r="P57" s="49"/>
-      <c r="Q57" s="64"/>
+      <c r="Q57" s="61"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
@@ -2390,10 +2478,10 @@
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
-      <c r="G58" s="71" t="s">
+      <c r="G58" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="75"/>
+      <c r="H58" s="72"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
       <c r="K58" s="49"/>
@@ -2402,7 +2490,7 @@
       <c r="N58" s="49"/>
       <c r="O58" s="49"/>
       <c r="P58" s="49"/>
-      <c r="Q58" s="64"/>
+      <c r="Q58" s="61"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
@@ -2411,10 +2499,10 @@
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
-      <c r="G59" s="71" t="s">
+      <c r="G59" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="75"/>
+      <c r="H59" s="72"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
       <c r="K59" s="49"/>
@@ -2423,7 +2511,7 @@
       <c r="N59" s="49"/>
       <c r="O59" s="49"/>
       <c r="P59" s="49"/>
-      <c r="Q59" s="64"/>
+      <c r="Q59" s="61"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
@@ -2432,10 +2520,10 @@
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
-      <c r="G60" s="71" t="s">
+      <c r="G60" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="75"/>
+      <c r="H60" s="72"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
       <c r="K60" s="49"/>
@@ -2444,7 +2532,7 @@
       <c r="N60" s="49"/>
       <c r="O60" s="49"/>
       <c r="P60" s="49"/>
-      <c r="Q60" s="64"/>
+      <c r="Q60" s="61"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
@@ -2453,10 +2541,10 @@
       <c r="D61" s="48"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
-      <c r="G61" s="73" t="s">
+      <c r="G61" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="76"/>
+      <c r="H61" s="73"/>
       <c r="I61" s="48"/>
       <c r="J61" s="48"/>
       <c r="K61" s="48"/>
@@ -2465,7 +2553,7 @@
       <c r="N61" s="48"/>
       <c r="O61" s="48"/>
       <c r="P61" s="48"/>
-      <c r="Q61" s="64"/>
+      <c r="Q61" s="61"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C62" s="41"/>
@@ -2496,48 +2584,68 @@
       <c r="R65" s="21"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" s="24"/>
+      <c r="B66" s="27"/>
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" s="24"/>
+      <c r="B67" s="27"/>
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" s="24"/>
+      <c r="B68" s="27"/>
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" s="24"/>
+      <c r="B69" s="27"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" s="24"/>
+      <c r="B70" s="27"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" s="24"/>
+      <c r="B71" s="27"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" s="24"/>
+      <c r="B72" s="27"/>
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" s="24"/>
+      <c r="B73" s="27"/>
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" s="24"/>
+      <c r="B74" s="27"/>
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" s="24"/>
+      <c r="B75" s="27"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -2556,8 +2664,8 @@
       <c r="R76" s="22"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="24"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
